--- a/тест марафон/bug-report-internet-shop-matter.xlsx
+++ b/тест марафон/bug-report-internet-shop-matter.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -391,12 +391,16 @@
   <si>
     <t>https://yadi.sk/i/cVHn8CQoMIspEg</t>
   </si>
+  <si>
+    <t xml:space="preserve">Finding and checking the bug (min)
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +468,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -560,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -600,6 +612,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,10 +847,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J996"/>
+  <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -835,10 +865,11 @@
     <col min="8" max="8" width="37.375" customWidth="1"/>
     <col min="9" max="9" width="38.5" customWidth="1"/>
     <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="28" width="7.75" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="20" customWidth="1"/>
+    <col min="12" max="28" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -850,8 +881,9 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -879,11 +911,14 @@
       <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -914,8 +949,11 @@
       <c r="J3" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.2">
+      <c r="K3" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -946,8 +984,11 @@
       <c r="J4" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="180" x14ac:dyDescent="0.2">
+      <c r="K4" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
@@ -978,8 +1019,11 @@
       <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K5" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
@@ -1010,8 +1054,11 @@
       <c r="J6" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K6" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
@@ -1042,8 +1089,11 @@
       <c r="J7" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="196.5" x14ac:dyDescent="0.2">
+      <c r="K7" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="196.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
@@ -1074,8 +1124,11 @@
       <c r="J8" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K8" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -1106,8 +1159,11 @@
       <c r="J9" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K9" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
@@ -1138,8 +1194,11 @@
       <c r="J10" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K10" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1170,8 +1229,11 @@
       <c r="J11" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K11" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
@@ -1202,8 +1264,11 @@
       <c r="J12" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="K12" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -1234,18 +1299,29 @@
       <c r="J13" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="21">
+        <f>SUM(K3:K13)</f>
+        <v>450</v>
+      </c>
+      <c r="L14">
+        <f>450/60</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6170,6 +6246,6 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="2" orientation="landscape" r:id="rId12"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="2" orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>